--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -500,13 +500,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Gladlaksen</t>
@@ -541,13 +545,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Chemie FK</t>
@@ -582,13 +590,17 @@
           <t>Janus FK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>
@@ -664,13 +676,17 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -632,16 +632,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>NTNUI Champs</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>
@@ -854,7 +858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1207,7 +1211,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
@@ -1372,7 +1376,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1725,7 +1729,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
@@ -1931,7 +1935,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2149,7 +2153,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2338,7 +2342,7 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
@@ -2708,7 +2712,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NTNUI CHAMPS</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -779,13 +779,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Gladlaksen</t>
@@ -820,13 +824,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>
@@ -861,13 +869,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Janus FK</t>
@@ -902,13 +914,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>FK Steindølene 2</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -959,13 +959,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1140,13 +1140,17 @@
           <t>Gladlaksen</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1226,13 +1226,17 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NTNUI Champs</t>
@@ -1403,13 +1407,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -1485,13 +1493,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1366,13 +1366,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Chemie FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1325,13 +1325,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>
@@ -1456,13 +1460,17 @@
           <t>Janus FK</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Gladlaksen</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1686,13 +1686,17 @@
           <t>Gladlaksen</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1645,13 +1645,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Janus FK</t>
@@ -1731,13 +1735,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>FK Steindølene 2</t>
@@ -1772,13 +1780,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NTNUI Champs</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1604,13 +1604,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1099,13 +1099,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Janus FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1928,13 +1928,17 @@
           <t>Gladlaksen</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -1969,13 +1973,17 @@
           <t>Janus FK</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>
@@ -2010,13 +2018,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1887,13 +1887,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -2067,13 +2067,17 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Chemie FK</t>
@@ -2162,13 +2166,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>
@@ -2285,13 +2293,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -2338,13 +2338,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Gladlaksen</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -2252,13 +2252,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>FK Steindølene 2</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1189,13 +1189,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -2445,13 +2445,17 @@
           <t>Gladlaksen</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>NTNUI Champs</t>
@@ -2486,13 +2490,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>
@@ -2527,13 +2535,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>
@@ -2568,13 +2580,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>
@@ -2609,13 +2625,17 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>Janus FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -1058,13 +1058,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Chemie FK</t>
@@ -2215,13 +2219,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Janus FK</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -2589,15 +2589,15 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>2</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2732,13 +2732,17 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>
@@ -2773,13 +2777,17 @@
           <t>FK Steindølene 2</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Gladlaksen</t>
@@ -2814,13 +2822,17 @@
           <t>Janus FK</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -2896,13 +2908,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -2589,15 +2589,15 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>5</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>

--- a/Scripts/Kamper/H25/A-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/A-Avdeling.xlsx
@@ -2867,13 +2867,17 @@
           <t>NTNUI Champs</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>Chemie FK</t>
